--- a/SeleniumCShape10/TestData/TestFile.xlsx
+++ b/SeleniumCShape10/TestData/TestFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestAutomation\SeleniumCShape10\SeleniumCShape10\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D796B2F4-49A4-48C8-BD48-38D528634198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D04430A-95D9-46E6-A3A3-E4ACBB016350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,22 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>UserName</t>
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>diwanbisht</t>
+  </si>
+  <si>
+    <t>Testing123</t>
+  </si>
+  <si>
+    <t>BaseUrl</t>
+  </si>
+  <si>
+    <t>https://adactinhotelapp.com/index.php</t>
+  </si>
+  <si>
+    <t>diwanbisht1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test@1234 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +89,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -348,26 +377,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{BC1D0360-9E5D-407B-8DD0-7CEEEA518E72}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{EBF5FFF5-D96C-4528-9CAA-2B1EEBF520AE}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{3D511A54-8661-4810-8E13-CFC09EDC73FC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>